--- a/data/trans_dic/P17_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud mental autopercibida regular o mala</t>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14,26%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,7%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15,17%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 13,89</t>
+          <t>6,34; 15,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 9,04</t>
+          <t>3,68; 12,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,9</t>
+          <t>4,67; 13,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 14,31</t>
+          <t>4,95; 15,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,16; 28,0</t>
+          <t>7,14; 18,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,39; 15,74</t>
+          <t>14,3; 25,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,91; 24,45</t>
+          <t>6,2; 14,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,57; 40,49</t>
+          <t>14,5; 25,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,27; 20,15</t>
+          <t>14,79; 25,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 11,27</t>
+          <t>12,23; 23,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,35; 18,21</t>
+          <t>11,95; 19,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,81; 26,13</t>
+          <t>5,97; 11,81</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 17,97</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11,45; 19,08</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11,47; 19,77</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 16,74</t>
+          <t>7,61; 19,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 22,12</t>
+          <t>3,82; 13,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 18,98</t>
+          <t>5,14; 15,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,12; 16,86</t>
+          <t>8,79; 20,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,82; 27,92</t>
+          <t>9,08; 21,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,11; 18,15</t>
+          <t>15,91; 28,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,47; 22,87</t>
+          <t>6,73; 17,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,44; 26,06</t>
+          <t>9,29; 19,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,06; 21,07</t>
+          <t>10,25; 21,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 16,86</t>
+          <t>18,8; 41,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,77; 19,11</t>
+          <t>13,66; 22,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,05; 20,6</t>
+          <t>6,17; 12,77</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>8,64; 15,89</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10,92; 18,87</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>15,35; 29,76</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>17,43%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>26,39%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 49,02</t>
+          <t>12,26; 72,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 18,09</t>
+          <t>2,07; 24,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 19,55</t>
+          <t>0,0; 18,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 25,81</t>
+          <t>2,69; 28,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 39,27</t>
+          <t>6,69; 73,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 18,22</t>
+          <t>14,88; 46,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 26,77</t>
+          <t>2,21; 23,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,11; 30,95</t>
+          <t>7,84; 34,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,38; 40,53</t>
+          <t>11,37; 38,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 15,89</t>
+          <t>8,86; 34,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 19,62</t>
+          <t>19,36; 53,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 24,41</t>
+          <t>3,31; 17,83</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 21,76</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>8,68; 29,19</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 52,04</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18,43%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,28; 16,75</t>
+          <t>9,97; 22,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 13,15</t>
+          <t>4,82; 11,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,64</t>
+          <t>5,78; 12,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 14,5</t>
+          <t>7,98; 15,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,03; 26,86</t>
+          <t>11,16; 24,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,77</t>
+          <t>17,23; 25,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 21,97</t>
+          <t>7,38; 13,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,33; 30,24</t>
+          <t>13,91; 21,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 20,42</t>
+          <t>14,56; 22,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,6</t>
+          <t>16,57; 27,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,8; 16,93</t>
+          <t>14,94; 21,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 21,35</t>
+          <t>6,82; 10,93</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 15,67</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 17,63</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>15,05; 22,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37626</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27950</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30443</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>35162</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>65321</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>84607</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>50161</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>81786</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>80728</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>98413</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>122233</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>78111</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>112229</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>115890</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>163734</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23202; 57914</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14765; 49462</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17106; 49438</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18848; 58306</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36860; 97865</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>62236; 110182</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>31527; 74743</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>61047; 106962</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>60261; 105801</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>68929; 133419</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>95707; 156474</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54316; 107459</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>85083; 141441</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>90239; 150368</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>123773; 213461</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>37647</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30717</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>44687</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>58785</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77047</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45436</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47061</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49823</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>113461</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>114694</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>70935</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>77778</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>94510</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>172246</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23189; 59122</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13744; 48521</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16365; 49397</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>28354; 67373</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>37452; 89881</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>55311; 100299</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28641; 72647</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31455; 67457</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34138; 69957</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>81078; 178322</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>89078; 146960</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>48381; 100226</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>56755; 104327</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>71590; 123716</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>129453; 251012</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9315</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4546</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10546</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39605</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22610</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7842</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15134</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18764</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21298</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>52740</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17157</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>19680</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>29309</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>60904</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9984; 59340</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2103; 25066</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14491</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2299; 23975</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7991; 87558</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12293; 38332</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2240; 23808</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6238; 27606</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9390; 32186</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9866; 38566</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31760; 88270</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6727; 36185</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>9702; 34632</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>14595; 49078</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>27685; 120093</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>105402</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>62764</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>65706</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>90394</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>163712</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>184264</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>103439</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>143981</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>149315</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>233172</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>289667</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>166203</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>209687</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>239709</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>396884</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>74948; 170885</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>41556; 95919</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44184; 92557</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>62980; 120869</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>116896; 255572</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>149096; 223553</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>76370; 137607</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>116694; 180579</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>119837; 185032</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>183255; 304528</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>241677; 346578</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>129404; 207336</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>172969; 251151</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>196963; 284155</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>324233; 491130</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
